--- a/docs/miyun cheetsheet.xlsx
+++ b/docs/miyun cheetsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hackeru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hackeru\playground\miyun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B539B89-C35B-47C4-9E39-005E8CB5F094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B948AA99-44FB-4A6F-8178-4D1DF248B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70B3CD9D-6251-4776-8017-E7162049D5C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Tag</t>
   </si>
@@ -530,13 +530,92 @@
   </si>
   <si>
     <t>Explanation</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>tag-name {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">העיצוב יופעל על כל התגיות בעלות השם שצויין </t>
+  </si>
+  <si>
+    <t>לדוגמה h1 - על כל תגיות הh1 בעמוד</t>
+  </si>
+  <si>
+    <t>CSS - props</t>
+  </si>
+  <si>
+    <t>צובע את צבע הרקע</t>
+  </si>
+  <si>
+    <r>
+      <t>background-color</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: color name/color hex;</t>
+    </r>
+  </si>
+  <si>
+    <t>color: color name/color hex;</t>
+  </si>
+  <si>
+    <t>צובע את צבע הטקסט</t>
+  </si>
+  <si>
+    <t>font-size: 3.5rem;</t>
+  </si>
+  <si>
+    <t>משנה את גודל הטקסט</t>
+  </si>
+  <si>
+    <t>text-align: left | center | right;</t>
+  </si>
+  <si>
+    <t>מגדיר האם הטקסט יהיה בצג ימין שמאל או מרכז</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>console.log("Hello world!");</t>
+  </si>
+  <si>
+    <t>מדפיס את המילים hello world! בconsole</t>
+  </si>
+  <si>
+    <t>let mishtaneKolshehu</t>
+  </si>
+  <si>
+    <t>מגדיר משתנה חדש</t>
+  </si>
+  <si>
+    <t>let a = 5;</t>
+  </si>
+  <si>
+    <t>a = a + 5;</t>
+  </si>
+  <si>
+    <t>מגדיר משתנה חדש בשם a וa = ל5</t>
+  </si>
+  <si>
+    <t>מסיף לa  את המספר 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +640,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000CD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -903,15 +990,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1135EFEF-4D5B-4A97-A86D-38B014AE96BE}">
-  <dimension ref="C4:E21"/>
+  <dimension ref="C4:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1063,7 +1150,100 @@
         <v>31</v>
       </c>
     </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/miyun cheetsheet.xlsx
+++ b/docs/miyun cheetsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hackeru\playground\miyun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hackeru\playground\FS010622E\l1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B948AA99-44FB-4A6F-8178-4D1DF248B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB46E66-C541-4C5B-8DF5-8073F10E58D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70B3CD9D-6251-4776-8017-E7162049D5C7}"/>
+    <workbookView xWindow="-28920" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{70B3CD9D-6251-4776-8017-E7162049D5C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Tag</t>
   </si>
@@ -609,6 +609,18 @@
   </si>
   <si>
     <t>מסיף לa  את המספר 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =</t>
+  </si>
+  <si>
+    <t>השמה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ==</t>
+  </si>
+  <si>
+    <t>השוואה</t>
   </si>
 </sst>
 </file>
@@ -990,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1135EFEF-4D5B-4A97-A86D-38B014AE96BE}">
-  <dimension ref="C4:E37"/>
+  <dimension ref="C4:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,6 +1254,22 @@
         <v>58</v>
       </c>
     </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/miyun cheetsheet.xlsx
+++ b/docs/miyun cheetsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hackeru\playground\FS010622E\l1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB46E66-C541-4C5B-8DF5-8073F10E58D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1595C43F-9E1A-46A4-853F-EA52F8FEF4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{70B3CD9D-6251-4776-8017-E7162049D5C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70B3CD9D-6251-4776-8017-E7162049D5C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>Tag</t>
   </si>
@@ -621,6 +621,57 @@
   </si>
   <si>
     <t>השוואה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   :</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>לא שווה</t>
+  </si>
+  <si>
+    <t>x &gt; y</t>
+  </si>
+  <si>
+    <t>גדול</t>
+  </si>
+  <si>
+    <t>x &lt; y</t>
+  </si>
+  <si>
+    <t>קטן</t>
+  </si>
+  <si>
+    <t>x &gt;= y</t>
+  </si>
+  <si>
+    <t>x &lt;= y</t>
+  </si>
+  <si>
+    <t>גדול שווה</t>
+  </si>
+  <si>
+    <t>קטן שווה</t>
+  </si>
+  <si>
+    <t>operators</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1135EFEF-4D5B-4A97-A86D-38B014AE96BE}">
-  <dimension ref="C4:E40"/>
+  <dimension ref="C4:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,18 +1307,95 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
